--- a/data/my_portfolio_price.xlsx
+++ b/data/my_portfolio_price.xlsx
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:M213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9108,6 +9108,47 @@
         <v>11850</v>
       </c>
     </row>
+    <row r="213" spans="1:13">
+      <c r="A213" s="2">
+        <v>43780</v>
+      </c>
+      <c r="B213">
+        <v>6120</v>
+      </c>
+      <c r="C213">
+        <v>225000</v>
+      </c>
+      <c r="D213">
+        <v>44750</v>
+      </c>
+      <c r="E213">
+        <v>32300</v>
+      </c>
+      <c r="F213">
+        <v>120000</v>
+      </c>
+      <c r="G213">
+        <v>64900</v>
+      </c>
+      <c r="H213">
+        <v>7440</v>
+      </c>
+      <c r="I213">
+        <v>34750</v>
+      </c>
+      <c r="J213">
+        <v>7040</v>
+      </c>
+      <c r="K213">
+        <v>73300</v>
+      </c>
+      <c r="L213">
+        <v>321500</v>
+      </c>
+      <c r="M213">
+        <v>11650</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/my_portfolio_price.xlsx
+++ b/data/my_portfolio_price.xlsx
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M213"/>
+  <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9113,40 +9113,81 @@
         <v>43780</v>
       </c>
       <c r="B213">
-        <v>6120</v>
+        <v>6040</v>
       </c>
       <c r="C213">
-        <v>225000</v>
+        <v>223500</v>
       </c>
       <c r="D213">
-        <v>44750</v>
+        <v>44600</v>
       </c>
       <c r="E213">
-        <v>32300</v>
+        <v>32000</v>
       </c>
       <c r="F213">
-        <v>120000</v>
+        <v>118000</v>
       </c>
       <c r="G213">
-        <v>64900</v>
+        <v>64600</v>
       </c>
       <c r="H213">
-        <v>7440</v>
+        <v>7450</v>
       </c>
       <c r="I213">
         <v>34750</v>
       </c>
       <c r="J213">
-        <v>7040</v>
+        <v>7080</v>
       </c>
       <c r="K213">
-        <v>73300</v>
+        <v>72600</v>
       </c>
       <c r="L213">
-        <v>321500</v>
+        <v>317000</v>
       </c>
       <c r="M213">
-        <v>11650</v>
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
+      <c r="A214" s="2">
+        <v>43781</v>
+      </c>
+      <c r="B214">
+        <v>6080</v>
+      </c>
+      <c r="C214">
+        <v>223000</v>
+      </c>
+      <c r="D214">
+        <v>44300</v>
+      </c>
+      <c r="E214">
+        <v>31950</v>
+      </c>
+      <c r="F214">
+        <v>119000</v>
+      </c>
+      <c r="G214">
+        <v>64600</v>
+      </c>
+      <c r="H214">
+        <v>7420</v>
+      </c>
+      <c r="I214">
+        <v>35100</v>
+      </c>
+      <c r="J214">
+        <v>7100</v>
+      </c>
+      <c r="K214">
+        <v>72600</v>
+      </c>
+      <c r="L214">
+        <v>317500</v>
+      </c>
+      <c r="M214">
+        <v>11800</v>
       </c>
     </row>
   </sheetData>

--- a/data/my_portfolio_price.xlsx
+++ b/data/my_portfolio_price.xlsx
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:M215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9154,7 +9154,7 @@
         <v>43781</v>
       </c>
       <c r="B214">
-        <v>6080</v>
+        <v>6090</v>
       </c>
       <c r="C214">
         <v>223000</v>
@@ -9163,31 +9163,72 @@
         <v>44300</v>
       </c>
       <c r="E214">
-        <v>31950</v>
+        <v>32400</v>
       </c>
       <c r="F214">
         <v>119000</v>
       </c>
       <c r="G214">
-        <v>64600</v>
+        <v>64100</v>
       </c>
       <c r="H214">
-        <v>7420</v>
+        <v>7300</v>
       </c>
       <c r="I214">
-        <v>35100</v>
+        <v>35250</v>
       </c>
       <c r="J214">
-        <v>7100</v>
+        <v>7120</v>
       </c>
       <c r="K214">
-        <v>72600</v>
+        <v>73000</v>
       </c>
       <c r="L214">
         <v>317500</v>
       </c>
       <c r="M214">
-        <v>11800</v>
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
+      <c r="A215" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B215">
+        <v>6060</v>
+      </c>
+      <c r="C215">
+        <v>222500</v>
+      </c>
+      <c r="D215">
+        <v>43950</v>
+      </c>
+      <c r="E215">
+        <v>32200</v>
+      </c>
+      <c r="F215">
+        <v>117500</v>
+      </c>
+      <c r="G215">
+        <v>63700</v>
+      </c>
+      <c r="H215">
+        <v>7350</v>
+      </c>
+      <c r="I215">
+        <v>35000</v>
+      </c>
+      <c r="J215">
+        <v>7080</v>
+      </c>
+      <c r="K215">
+        <v>72900</v>
+      </c>
+      <c r="L215">
+        <v>316500</v>
+      </c>
+      <c r="M215">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
